--- a/LOGIN-PAINEL/usuarios.xlsx
+++ b/LOGIN-PAINEL/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://giroprodutos-my.sharepoint.com/personal/cig360_giroprodutos_onmicrosoft_com/Documents/COMPARTILHADA - CIG360/02_RELATORIOS/09_PYTHON/LOGIN-PAINEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{1ACF2E91-AF14-4347-A6FC-F6BE9DB0AEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89CFE75C-51FB-4A09-ABCE-8E166CC8F92C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1ACF2E91-AF14-4347-A6FC-F6BE9DB0AEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBA1636-8A1F-49C3-BCD2-914792B45EE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{174927C8-5EBF-451A-A4F2-0F1119D080E4}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
